--- a/meta_github.xlsx
+++ b/meta_github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwan\Documents\0-Science\0-6 Mate-Analysis\0-6-1Hydraulic\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7CAF36-A7B2-4F29-B48E-2DCC4D012533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF8D9DF-F0F4-4D70-A46A-856A614F4605}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AS" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,14 @@
     <sheet name="Ks" sheetId="4" r:id="rId4"/>
     <sheet name="pH" sheetId="5" r:id="rId5"/>
     <sheet name="TP" sheetId="6" r:id="rId6"/>
-    <sheet name="ESP" sheetId="7" r:id="rId7"/>
-    <sheet name="SAR" sheetId="8" r:id="rId8"/>
+    <sheet name="SAR" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="41">
   <si>
     <t>study</t>
   </si>
@@ -151,14 +150,11 @@
   <si>
     <t>Bhardwaj</t>
   </si>
-  <si>
-    <t>sp</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,17 +982,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2638,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4125,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -5612,7 +5608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6395,7 +6391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -7786,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8505,1018 +8501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2023</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>3.84</v>
-      </c>
-      <c r="F2">
-        <v>0.26</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1.19</v>
-      </c>
-      <c r="I2">
-        <v>0.08</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.35</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>1.19</v>
-      </c>
-      <c r="I3">
-        <v>0.08</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3.87</v>
-      </c>
-      <c r="F4">
-        <v>0.32</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1.19</v>
-      </c>
-      <c r="I4">
-        <v>0.08</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>3.54</v>
-      </c>
-      <c r="F5">
-        <v>0.17</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1.19</v>
-      </c>
-      <c r="I5">
-        <v>0.08</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2021</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F6">
-        <v>0.03</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>2021</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1.84</v>
-      </c>
-      <c r="I7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1.43</v>
-      </c>
-      <c r="F8">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1.35</v>
-      </c>
-      <c r="I8">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>2021</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2.5</v>
-      </c>
-      <c r="I9">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F10">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I10">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>2021</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>1.96</v>
-      </c>
-      <c r="F11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>1.69</v>
-      </c>
-      <c r="I11">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F12">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2.08</v>
-      </c>
-      <c r="I12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1.98</v>
-      </c>
-      <c r="F13">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1.97</v>
-      </c>
-      <c r="I13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2021</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1.35</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1.81</v>
-      </c>
-      <c r="I14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>2019</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1.68</v>
-      </c>
-      <c r="I15">
-        <v>0.09</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>2019</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F16">
-        <v>0.15</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>1.6</v>
-      </c>
-      <c r="I16">
-        <v>0.08</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>1.81</v>
-      </c>
-      <c r="F17">
-        <v>0.11</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>1.73</v>
-      </c>
-      <c r="I17">
-        <v>0.23</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>2019</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>1.94</v>
-      </c>
-      <c r="F18">
-        <v>0.17</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1.86</v>
-      </c>
-      <c r="I18">
-        <v>1.2</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>1.76</v>
-      </c>
-      <c r="F19">
-        <v>0.17</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1.77</v>
-      </c>
-      <c r="I19">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>5.9</v>
-      </c>
-      <c r="F20">
-        <v>0.6</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>2.8</v>
-      </c>
-      <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>2016</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>13.59</v>
-      </c>
-      <c r="F21">
-        <v>1.766691824</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>2.85</v>
-      </c>
-      <c r="I21">
-        <v>0.62353829100000002</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>2015</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>2.06</v>
-      </c>
-      <c r="F22">
-        <v>0.22516660499999999</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1.41</v>
-      </c>
-      <c r="I22">
-        <v>0.554256258</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>2015</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23">
-        <v>2.23</v>
-      </c>
-      <c r="F23">
-        <v>0.34641016200000002</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>2.41</v>
-      </c>
-      <c r="I23">
-        <v>0.554256258</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>2015</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
-        <v>1.63</v>
-      </c>
-      <c r="F24">
-        <v>0.121243557</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>3.41</v>
-      </c>
-      <c r="I24">
-        <v>0.554256258</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>2015</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>2.08</v>
-      </c>
-      <c r="F25">
-        <v>0.29444863700000001</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1.01</v>
-      </c>
-      <c r="I25">
-        <v>0.20784609700000001</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>2015</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26">
-        <v>1.99</v>
-      </c>
-      <c r="F26">
-        <v>0.29444863700000001</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>1.01</v>
-      </c>
-      <c r="I26">
-        <v>0.20784609700000001</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>2015</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27">
-        <v>1.35</v>
-      </c>
-      <c r="F27">
-        <v>0.20784609700000001</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>1.01</v>
-      </c>
-      <c r="I27">
-        <v>0.20784609700000001</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>2014</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>2.8</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I28">
-        <v>0.2</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>2014</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>4.8</v>
-      </c>
-      <c r="F29">
-        <v>0.2</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>2.9</v>
-      </c>
-      <c r="I29">
-        <v>0.3</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>2014</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <v>4.2</v>
-      </c>
-      <c r="F30">
-        <v>0.2</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>1.3</v>
-      </c>
-      <c r="I30">
-        <v>0.2</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>2014</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>1.4</v>
-      </c>
-      <c r="F31">
-        <v>0.1</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>1.3</v>
-      </c>
-      <c r="I31">
-        <v>0.3</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/meta_github.xlsx
+++ b/meta_github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF8D9DF-F0F4-4D70-A46A-856A614F4605}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE8FE78-0B51-4712-9E56-720D0048A47D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="41">
   <si>
     <t>study</t>
   </si>
@@ -693,6 +693,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -992,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8502,10 +8506,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9118,6 +9122,774 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2021</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2.4502680290000001</v>
+      </c>
+      <c r="F20">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2.273155622</v>
+      </c>
+      <c r="I20">
+        <v>1.2959999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>2021</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2.2378415770000002</v>
+      </c>
+      <c r="F21">
+        <v>1.584E-2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>2.1250783919999998</v>
+      </c>
+      <c r="I21">
+        <v>3.024E-2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1.8377936699999999</v>
+      </c>
+      <c r="F22">
+        <v>4.8239999999999998E-2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1.7820165450000001</v>
+      </c>
+      <c r="I22">
+        <v>2.0879999999999999E-2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>2021</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2.5427251709999998</v>
+      </c>
+      <c r="F23">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>2.5926119079999999</v>
+      </c>
+      <c r="I23">
+        <v>4.4639999999999999E-2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>2021</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>2.379314409</v>
+      </c>
+      <c r="F24">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2.273155622</v>
+      </c>
+      <c r="I24">
+        <v>3.7440000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>2021</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>2.2096162760000002</v>
+      </c>
+      <c r="F25">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>2.0196962570000001</v>
+      </c>
+      <c r="I25">
+        <v>4.752E-2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2021</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>2.2872913370000001</v>
+      </c>
+      <c r="F26">
+        <v>3.024E-2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>2.2943613599999999</v>
+      </c>
+      <c r="I26">
+        <v>3.0960000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2021</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>2.223726047</v>
+      </c>
+      <c r="F27">
+        <v>1.8720000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>2.2166704419999999</v>
+      </c>
+      <c r="I27">
+        <v>2.7359999999999999E-2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1.7820165450000001</v>
+      </c>
+      <c r="F28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2.1039762070000001</v>
+      </c>
+      <c r="I28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>2.379314409</v>
+      </c>
+      <c r="F29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>2.0126822139999998</v>
+      </c>
+      <c r="I29">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>2.2590256790000001</v>
+      </c>
+      <c r="F30">
+        <v>0.108</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1.9566211929999999</v>
+      </c>
+      <c r="I30">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>2019</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>2.1039762070000001</v>
+      </c>
+      <c r="F31">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2.0477667030000002</v>
+      </c>
+      <c r="I31">
+        <v>0.1656</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>2.1955122600000001</v>
+      </c>
+      <c r="F32">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2.1391536819999999</v>
+      </c>
+      <c r="I32">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>2.068834539</v>
+      </c>
+      <c r="F33">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2.07586001</v>
+      </c>
+      <c r="I33">
+        <v>0.1008</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>2015</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>2.2802227579999998</v>
+      </c>
+      <c r="F34">
+        <v>0.16211995600000001</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1.8238409019999999</v>
+      </c>
+      <c r="I34">
+        <v>0.39906450599999999</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>2015</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>2.4005852550000002</v>
+      </c>
+      <c r="F35">
+        <v>0.249415317</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2.5284849619999998</v>
+      </c>
+      <c r="I35">
+        <v>0.39906450599999999</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>1.97763339</v>
+      </c>
+      <c r="F36">
+        <v>8.7295361000000002E-2</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3.2477194360000001</v>
+      </c>
+      <c r="I36">
+        <v>0.39906450599999999</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>2015</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>2.2943613599999999</v>
+      </c>
+      <c r="F37">
+        <v>0.21200301899999999</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>1.5459695470000001</v>
+      </c>
+      <c r="I37">
+        <v>0.14964918999999999</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>2015</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>2.2307830919999998</v>
+      </c>
+      <c r="F38">
+        <v>0.21200301899999999</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1.5459695470000001</v>
+      </c>
+      <c r="I38">
+        <v>0.14964918999999999</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>2015</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>1.7820165450000001</v>
+      </c>
+      <c r="F39">
+        <v>0.14964918999999999</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1.5459695470000001</v>
+      </c>
+      <c r="I39">
+        <v>0.14964918999999999</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>2.8072260579999999</v>
+      </c>
+      <c r="F40">
+        <v>0.36</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>2.4502680290000001</v>
+      </c>
+      <c r="I40">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>2014</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>4.2725537669999998</v>
+      </c>
+      <c r="F41">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2.8790588069999998</v>
+      </c>
+      <c r="I41">
+        <v>0.216</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>2014</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>3.826531262</v>
+      </c>
+      <c r="F42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>1.7472017580000001</v>
+      </c>
+      <c r="I42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>2014</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>1.8168666410000001</v>
+      </c>
+      <c r="F43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>1.7472017580000001</v>
+      </c>
+      <c r="I43">
+        <v>0.216</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta_github.xlsx
+++ b/meta_github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE8FE78-0B51-4712-9E56-720D0048A47D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1A347E-7E38-4CC2-A420-35B40AF40202}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="44">
   <si>
     <t>study</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Bhardwaj</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* means transfer ESP to SAR</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -698,9 +707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8506,15 +8515,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J43"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8545,8 +8557,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8578,7 +8593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8610,7 +8625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8674,7 +8689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -8706,7 +8721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8738,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -8770,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8802,7 +8817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8834,7 +8849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -8866,7 +8881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8898,7 +8913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -8930,7 +8945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -8962,7 +8977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8994,7 +9009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -9026,7 +9041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -9058,7 +9073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -9090,7 +9105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9122,7 +9137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -9153,8 +9168,11 @@
       <c r="J20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9185,8 +9203,11 @@
       <c r="J21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -9217,8 +9238,11 @@
       <c r="J22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -9249,8 +9273,11 @@
       <c r="J23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -9281,8 +9308,11 @@
       <c r="J24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -9313,8 +9343,11 @@
       <c r="J25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -9345,8 +9378,11 @@
       <c r="J26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -9377,8 +9413,11 @@
       <c r="J27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -9409,8 +9448,11 @@
       <c r="J28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -9441,8 +9483,11 @@
       <c r="J29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -9473,8 +9518,11 @@
       <c r="J30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -9505,8 +9553,11 @@
       <c r="J31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -9537,8 +9588,11 @@
       <c r="J32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -9569,8 +9623,11 @@
       <c r="J33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9601,8 +9658,11 @@
       <c r="J34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9633,8 +9693,11 @@
       <c r="J35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9665,8 +9728,11 @@
       <c r="J36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9697,8 +9763,11 @@
       <c r="J37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9729,8 +9798,11 @@
       <c r="J38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -9761,8 +9833,11 @@
       <c r="J39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -9793,8 +9868,11 @@
       <c r="J40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -9825,8 +9903,11 @@
       <c r="J41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -9857,8 +9938,11 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -9888,6 +9972,14 @@
       </c>
       <c r="J43">
         <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/meta_github.xlsx
+++ b/meta_github.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/major/remove_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1A347E-7E38-4CC2-A420-35B40AF40202}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{CC044392-146A-4741-BD00-51BFE9909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{681C3D82-27C6-41B3-97EE-E6ABB7715153}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,14 @@
     <sheet name="pH" sheetId="5" r:id="rId5"/>
     <sheet name="TP" sheetId="6" r:id="rId6"/>
     <sheet name="SAR" sheetId="8" r:id="rId7"/>
+    <sheet name="SOC" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="43">
   <si>
     <t>study</t>
   </si>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>Babcock</t>
-  </si>
-  <si>
-    <t>Sparling</t>
   </si>
   <si>
     <t>Mandal</t>
@@ -702,10 +700,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1005,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2648,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A44:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4030,102 +4024,6 @@
       </c>
       <c r="J43">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>2001</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44">
-        <v>0.49</v>
-      </c>
-      <c r="F44">
-        <v>0.05</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>0.72</v>
-      </c>
-      <c r="I44">
-        <v>0.05</v>
-      </c>
-      <c r="J44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45">
-        <v>2001</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45">
-        <v>0.85</v>
-      </c>
-      <c r="F45">
-        <v>0.06</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>0.8</v>
-      </c>
-      <c r="I45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46">
-        <v>2001</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46">
-        <v>0.66</v>
-      </c>
-      <c r="F46">
-        <v>0.03</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-      <c r="H46">
-        <v>0.68</v>
-      </c>
-      <c r="I46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J46">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -5585,7 +5483,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>2008</v>
@@ -5625,7 +5523,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5862,7 +5760,7 @@
         <v>2014</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -5894,7 +5792,7 @@
         <v>2014</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -5926,7 +5824,7 @@
         <v>2014</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -5958,7 +5856,7 @@
         <v>2014</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -5984,7 +5882,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>2014</v>
@@ -6016,7 +5914,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -6048,7 +5946,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>2014</v>
@@ -6080,7 +5978,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -6176,7 +6074,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2011</v>
@@ -6208,7 +6106,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>2008</v>
@@ -6240,7 +6138,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2008</v>
@@ -6272,7 +6170,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>2007</v>
@@ -6304,7 +6202,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>2007</v>
@@ -6336,7 +6234,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>2007</v>
@@ -6368,7 +6266,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2007</v>
@@ -6405,10 +6303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="A43" sqref="A41:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7663,7 +7561,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>2008</v>
@@ -7691,102 +7589,6 @@
       </c>
       <c r="J40">
         <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>2001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>7.4</v>
-      </c>
-      <c r="F41">
-        <v>0.1</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <v>5.6</v>
-      </c>
-      <c r="I41">
-        <v>0.01</v>
-      </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42">
-        <v>2001</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42">
-        <v>0.49</v>
-      </c>
-      <c r="F42">
-        <v>0.05</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
-      </c>
-      <c r="H42">
-        <v>0.72</v>
-      </c>
-      <c r="I42">
-        <v>0.05</v>
-      </c>
-      <c r="J42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <v>2001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43">
-        <v>6.3</v>
-      </c>
-      <c r="F43">
-        <v>0.1</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
-      </c>
-      <c r="H43">
-        <v>5.6</v>
-      </c>
-      <c r="I43">
-        <v>0.1</v>
-      </c>
-      <c r="J43">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7796,10 +7598,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A22" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8410,102 +8212,6 @@
       </c>
       <c r="J19">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>2001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>78.3</v>
-      </c>
-      <c r="F20">
-        <v>1.8</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>2001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>63.9</v>
-      </c>
-      <c r="F21">
-        <v>2.4</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>2001</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>69.8</v>
-      </c>
-      <c r="F22">
-        <v>1.3</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <v>68.2</v>
-      </c>
-      <c r="I22">
-        <v>2.7</v>
-      </c>
-      <c r="J22">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8517,8 +8223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8558,7 +8264,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -9107,7 +8813,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>2008</v>
@@ -9169,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -9204,7 +8910,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -9239,7 +8945,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -9274,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -9309,7 +9015,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -9344,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -9379,7 +9085,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -9414,7 +9120,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -9449,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -9484,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -9519,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -9554,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -9589,7 +9295,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -9624,7 +9330,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -9659,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -9694,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -9729,7 +9435,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -9764,7 +9470,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -9799,7 +9505,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -9834,12 +9540,12 @@
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>2014</v>
@@ -9869,12 +9575,12 @@
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>2014</v>
@@ -9904,12 +9610,12 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>2014</v>
@@ -9939,12 +9645,12 @@
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -9974,12 +9680,1307 @@
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K45" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA4D999-2718-4DC0-BC0C-3D8F6A996E11}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0.85</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2.84</v>
+      </c>
+      <c r="F3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1.73</v>
+      </c>
+      <c r="I3">
+        <v>0.51</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2.06</v>
+      </c>
+      <c r="F4">
+        <v>0.24</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1.76</v>
+      </c>
+      <c r="I4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>1.64</v>
+      </c>
+      <c r="F5">
+        <v>1.5588457E-2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1.41</v>
+      </c>
+      <c r="I5">
+        <v>1.2124355999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1.47</v>
+      </c>
+      <c r="F6">
+        <v>1.0392304999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1.27</v>
+      </c>
+      <c r="I6">
+        <v>1.7320507999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2021</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>1.0392304999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I7">
+        <v>2.0784609999999999E-2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1.55</v>
+      </c>
+      <c r="F8">
+        <v>1.5588457E-2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1.35</v>
+      </c>
+      <c r="I8">
+        <v>1.2124355999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1.45</v>
+      </c>
+      <c r="F9">
+        <v>1.5588457E-2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1.29</v>
+      </c>
+      <c r="I9">
+        <v>3.4641020000000002E-3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1.18</v>
+      </c>
+      <c r="F10">
+        <v>1.5588457E-2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.3856406E-2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1.73</v>
+      </c>
+      <c r="F11">
+        <v>1.2124355999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1.39</v>
+      </c>
+      <c r="I11">
+        <v>3.1176914999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1.57</v>
+      </c>
+      <c r="F12">
+        <v>3.4641015999999997E-2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1.27</v>
+      </c>
+      <c r="I12">
+        <v>3.2908964999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.2516660000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1.04</v>
+      </c>
+      <c r="I13">
+        <v>2.4248710999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14">
+        <v>0.08</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1.35</v>
+      </c>
+      <c r="I14">
+        <v>0.08</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1.32</v>
+      </c>
+      <c r="F15">
+        <v>0.09</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1.3</v>
+      </c>
+      <c r="I15">
+        <v>0.08</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1.28</v>
+      </c>
+      <c r="F16">
+        <v>0.09</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1.25</v>
+      </c>
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1.35</v>
+      </c>
+      <c r="F17">
+        <v>0.08</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1.3</v>
+      </c>
+      <c r="I17">
+        <v>0.09</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1.27</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1.23</v>
+      </c>
+      <c r="I18">
+        <v>0.06</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>27.6</v>
+      </c>
+      <c r="F19">
+        <v>1.71</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>23.4</v>
+      </c>
+      <c r="I19">
+        <v>0.52</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0.71470588199999996</v>
+      </c>
+      <c r="F20">
+        <v>9.9338207999999997E-2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0.64411764699999996</v>
+      </c>
+      <c r="I20">
+        <v>9.1696807000000005E-2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0.78088235299999997</v>
+      </c>
+      <c r="F21">
+        <v>0.114621009</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>0.61764705900000005</v>
+      </c>
+      <c r="I21">
+        <v>0.106979609</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2016</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>3.45</v>
+      </c>
+      <c r="F22">
+        <v>0.398371686</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1.43</v>
+      </c>
+      <c r="I22">
+        <v>0.242487113</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>20.2</v>
+      </c>
+      <c r="F23">
+        <v>4.2262039700000003</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>6.11</v>
+      </c>
+      <c r="I23">
+        <v>0.41569219400000001</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F24">
+        <v>4.0010373650000002</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>6.11</v>
+      </c>
+      <c r="I24">
+        <v>0.41569219400000001</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2015</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>13.1</v>
+      </c>
+      <c r="F25">
+        <v>3.2908965339999998</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>6.11</v>
+      </c>
+      <c r="I25">
+        <v>0.41569219400000001</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>10.1</v>
+      </c>
+      <c r="F26">
+        <v>1.766691824</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4.62</v>
+      </c>
+      <c r="I26">
+        <v>0.34641016200000002</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2015</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>8.51</v>
+      </c>
+      <c r="F27">
+        <v>0.88334591200000001</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4.62</v>
+      </c>
+      <c r="I27">
+        <v>0.34641016200000002</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>7.08</v>
+      </c>
+      <c r="F28">
+        <v>1.3163586140000001</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4.62</v>
+      </c>
+      <c r="I28">
+        <v>0.34641016200000002</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2014</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>0.42</v>
+      </c>
+      <c r="F29">
+        <v>0.04</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0.33</v>
+      </c>
+      <c r="I29">
+        <v>0.03</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F30">
+        <v>0.03</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0.47</v>
+      </c>
+      <c r="I30">
+        <v>0.04</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0.66</v>
+      </c>
+      <c r="F31">
+        <v>0.03</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0.69</v>
+      </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1.03</v>
+      </c>
+      <c r="I32">
+        <v>0.02</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>2013</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>2.6</v>
+      </c>
+      <c r="F33">
+        <v>0.2</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>1.9</v>
+      </c>
+      <c r="I33">
+        <v>0.4</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I34">
+        <v>0.4</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>2013</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>1.2</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>1.2</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>2013</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F36">
+        <v>0.16</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>2011</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>13.99730821</v>
+      </c>
+      <c r="F37">
+        <v>1.0094212650000001</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>12.42261104</v>
+      </c>
+      <c r="I37">
+        <v>0.68640646000000005</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>2011</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>12.30148048</v>
+      </c>
+      <c r="F38">
+        <v>0.94212651400000003</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>12.42261104</v>
+      </c>
+      <c r="I38">
+        <v>0.68640646000000005</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>2011</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0.66</v>
+      </c>
+      <c r="F39">
+        <v>0.12</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I39">
+        <v>0.06</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>2011</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>0.61</v>
+      </c>
+      <c r="F40">
+        <v>0.09</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I40">
+        <v>0.06</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
